--- a/Соответствие АЦП-Напряжение.xlsx
+++ b/Соответствие АЦП-Напряжение.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Ruslan\IAR\EX\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86597CB4-2A27-465D-B8B4-97EC84EB266F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56E70A0C-A7F6-433E-B9AA-68C9BB56B35E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{15540EDB-11F1-4F54-8F57-E27579CA35D8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{15540EDB-11F1-4F54-8F57-E27579CA35D8}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
-    <sheet name="1500Гц" sheetId="2" r:id="rId2"/>
+    <sheet name="Лист2" sheetId="3" r:id="rId2"/>
+    <sheet name="1500Гц" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -959,6 +960,1105 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="ru-RU"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Лист2!$A$2:$A$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>189</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>220</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>630</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1258</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Лист2!$B$2:$B$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>367</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>415</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1050</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2020</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-89F5-4223-95A0-F8D8F296F912}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1868732767"/>
+        <c:axId val="1868728191"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1868732767"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1868728191"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1868728191"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1868732767"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.32056933508311464"/>
+          <c:y val="2.8282828282828285E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="ru-RU"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Лист2!$D$14:$D$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>740</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>990</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1310</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2600</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3390</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Лист2!$C$14:$C$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>250</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-82BD-4B29-A15A-898A80229CCD}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1865285791"/>
+        <c:axId val="1865291199"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1865285791"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1865291199"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1865291199"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1865285791"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="10"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="25400">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:trendline>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Лист2!$G$14:$G$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1200</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Лист2!$F$14:$F$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-DCF1-4B27-B516-C1A26EE0949F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="ru-RU"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Лист2!$J$14:$J$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3320</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Лист2!$I$14:$I$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>250</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-DCF1-4B27-B516-C1A26EE0949F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="213495983"/>
+        <c:axId val="213497231"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="213495983"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="213497231"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="213497231"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="213495983"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst/>
+  </c:chart>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
             <c:trendlineType val="poly"/>
             <c:order val="3"/>
             <c:dispRSqr val="0"/>
@@ -1399,6 +2499,86 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -2947,20 +4127,1052 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>85724</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>314324</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>19049</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>247649</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2988,15 +5200,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>200025</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>128587</xdr:rowOff>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>61912</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>504825</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>14287</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>138112</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3025,6 +5237,119 @@
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>466726</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>542925</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Диаграмма 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DE8E63B4-D635-49A1-8EAA-C12B0EEC2B3B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>14287</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Диаграмма 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E7542335-6CCF-4023-A925-2264B87A28C4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>176212</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>61912</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Диаграмма 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{082E2532-96CF-4093-B8C0-F820B3C2693F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -3364,7 +5689,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{894CF204-5857-46FA-8B69-434B0336DB8E}">
   <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A7" sqref="A7:C7"/>
     </sheetView>
   </sheetViews>
@@ -3483,6 +5808,154 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2AE2DA7C-CCF9-4DD6-9AAD-0AD2D6BA6E3F}">
+  <dimension ref="A2:J19"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J16" sqref="J16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>189</v>
+      </c>
+      <c r="B2">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>220</v>
+      </c>
+      <c r="B3">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>630</v>
+      </c>
+      <c r="B4">
+        <v>1050</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>1258</v>
+      </c>
+      <c r="B5">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C14">
+        <v>30</v>
+      </c>
+      <c r="D14">
+        <v>700</v>
+      </c>
+      <c r="F14">
+        <v>30</v>
+      </c>
+      <c r="G14">
+        <v>600</v>
+      </c>
+      <c r="I14">
+        <v>100</v>
+      </c>
+      <c r="J14">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>40</v>
+      </c>
+      <c r="B15">
+        <f>A15*4096/3300</f>
+        <v>49.648484848484848</v>
+      </c>
+      <c r="C15">
+        <v>35</v>
+      </c>
+      <c r="D15">
+        <v>740</v>
+      </c>
+      <c r="F15">
+        <v>100</v>
+      </c>
+      <c r="G15">
+        <v>1200</v>
+      </c>
+      <c r="I15">
+        <v>250</v>
+      </c>
+      <c r="J15">
+        <v>3320</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>46</v>
+      </c>
+      <c r="B16">
+        <f t="shared" ref="B16:B18" si="0">A16*4096/3300</f>
+        <v>57.095757575757574</v>
+      </c>
+      <c r="C16">
+        <v>65</v>
+      </c>
+      <c r="D16">
+        <v>990</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>125</v>
+      </c>
+      <c r="B17">
+        <f>A17*4096/3300</f>
+        <v>155.15151515151516</v>
+      </c>
+      <c r="C17">
+        <v>100</v>
+      </c>
+      <c r="D17">
+        <v>1310</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>247</v>
+      </c>
+      <c r="B18">
+        <f t="shared" si="0"/>
+        <v>306.57939393939392</v>
+      </c>
+      <c r="C18">
+        <v>200</v>
+      </c>
+      <c r="D18">
+        <v>2600</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C19">
+        <v>250</v>
+      </c>
+      <c r="D19">
+        <v>3390</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F8427AE-6DF9-4379-AB3B-933542B167B2}">
   <dimension ref="A1:B21"/>
   <sheetViews>

--- a/Соответствие АЦП-Напряжение.xlsx
+++ b/Соответствие АЦП-Напряжение.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Ruslan\IAR\EX\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56E70A0C-A7F6-433E-B9AA-68C9BB56B35E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AA85BB4-1A78-44DA-9348-2F70BB1B92EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{15540EDB-11F1-4F54-8F57-E27579CA35D8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{15540EDB-11F1-4F54-8F57-E27579CA35D8}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
     <sheet name="Лист2" sheetId="3" r:id="rId2"/>
-    <sheet name="1500Гц" sheetId="2" r:id="rId3"/>
+    <sheet name="калиб" sheetId="4" r:id="rId3"/>
+    <sheet name="1500Гц" sheetId="2" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="10">
   <si>
     <t>CCR</t>
   </si>
@@ -48,6 +49,24 @@
   </si>
   <si>
     <t>АЦП</t>
+  </si>
+  <si>
+    <t>Напряжение</t>
+  </si>
+  <si>
+    <t>Ток</t>
+  </si>
+  <si>
+    <t>u</t>
+  </si>
+  <si>
+    <t>I*10</t>
+  </si>
+  <si>
+    <t>туг</t>
+  </si>
+  <si>
+    <t>U</t>
   </si>
 </sst>
 </file>
@@ -84,8 +103,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -1975,6 +2000,861 @@
 </file>
 
 <file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="ru-RU"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>калиб!$A$3:$A$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>178</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>275</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>405</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>598</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>922</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1245</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1424</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>калиб!$B$3:$B$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>280</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>437</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>636</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>943</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1444</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1945</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2225</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-6803-479B-9F5B-D133933DC021}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1696831679"/>
+        <c:axId val="1696818367"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1696831679"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1696818367"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1696818367"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1696831679"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="4.3949442010716114E-2"/>
+          <c:y val="2.948073390778207E-2"/>
+          <c:w val="0.91624853787653793"/>
+          <c:h val="0.90834636084924769"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>калиб!$A$13:$A$17</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>410</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>637</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>940</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1395</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="ru-RU"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>калиб!$A$13:$A$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>410</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>637</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>калиб!$C$13:$C$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>43.7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-5F2B-4E02-82A5-F8EC75C31112}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="ru-RU"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>калиб!$A$15:$A$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>637</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>940</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1395</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2150</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2907</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3327</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>калиб!$C$15:$C$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>43.7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>63.6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>94.3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>144.4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>194.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>222.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000008-5F2B-4E02-82A5-F8EC75C31112}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="403226751"/>
+        <c:axId val="403234655"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="403226751"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="403234655"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="403234655"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="403226751"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
@@ -2579,6 +3459,86 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -4644,6 +5604,1038 @@
 </file>
 
 <file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -5241,15 +7233,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>466726</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>314326</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>161926</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>542925</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>47626</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5277,15 +7269,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>14287</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:colOff>176212</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>600075</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5314,8 +7306,8 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>219075</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>176212</xdr:rowOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>124810</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
@@ -5350,6 +7342,83 @@
 </file>
 
 <file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>85724</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>647700</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Диаграмма 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DAC9D756-5C02-4C6C-B2F4-52DAFBA70A51}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>128587</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>338137</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>476251</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Диаграмма 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3EA993D7-37D4-495F-89DB-E147F1A7F533}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -5690,7 +7759,7 @@
   <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:C7"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5811,8 +7880,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2AE2DA7C-CCF9-4DD6-9AAD-0AD2D6BA6E3F}">
   <dimension ref="A2:J19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14:D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5956,6 +8025,227 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{410AC3E7-FC20-45A3-9F58-3AF222CA3AB0}">
+  <dimension ref="A1:C20"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="S18" sqref="S18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>178</v>
+      </c>
+      <c r="B3">
+        <v>280</v>
+      </c>
+      <c r="C3">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>275</v>
+      </c>
+      <c r="B4">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>405</v>
+      </c>
+      <c r="B5">
+        <v>636</v>
+      </c>
+      <c r="C5">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>598</v>
+      </c>
+      <c r="B6">
+        <v>943</v>
+      </c>
+      <c r="C6">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>922</v>
+      </c>
+      <c r="B7">
+        <v>1444</v>
+      </c>
+      <c r="C7">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>1245</v>
+      </c>
+      <c r="B8">
+        <v>1945</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>1424</v>
+      </c>
+      <c r="B9">
+        <v>2225</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="51.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>65</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13">
+        <f>B13/10</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>410</v>
+      </c>
+      <c r="B14">
+        <v>280</v>
+      </c>
+      <c r="C14">
+        <f t="shared" ref="C14:C20" si="0">B14/10</f>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>637</v>
+      </c>
+      <c r="B15">
+        <v>437</v>
+      </c>
+      <c r="C15">
+        <f>B15/10</f>
+        <v>43.7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>940</v>
+      </c>
+      <c r="B16">
+        <v>636</v>
+      </c>
+      <c r="C16">
+        <f>B16/10</f>
+        <v>63.6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>1395</v>
+      </c>
+      <c r="B17">
+        <v>943</v>
+      </c>
+      <c r="C17">
+        <f t="shared" si="0"/>
+        <v>94.3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>2150</v>
+      </c>
+      <c r="B18">
+        <v>1444</v>
+      </c>
+      <c r="C18">
+        <f t="shared" si="0"/>
+        <v>144.4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>2907</v>
+      </c>
+      <c r="B19">
+        <v>1945</v>
+      </c>
+      <c r="C19">
+        <f t="shared" si="0"/>
+        <v>194.5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>3327</v>
+      </c>
+      <c r="B20">
+        <v>2225</v>
+      </c>
+      <c r="C20">
+        <f t="shared" si="0"/>
+        <v>222.5</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A11:C11"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F8427AE-6DF9-4379-AB3B-933542B167B2}">
   <dimension ref="A1:B21"/>
   <sheetViews>
